--- a/bots/crawl_ch/output/toilet_coop_2022-07-29.xlsx
+++ b/bots/crawl_ch/output/toilet_coop_2022-07-29.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -709,7 +709,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -855,7 +855,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -928,7 +928,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -985,36 +985,36 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6346775</t>
+          <t>6095356</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Tempo Premium 4-lagig 24 Rollen</t>
+          <t>Tempo Toilettenpapier weiss 4-lagig 32 Rollen</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-premium-4-lagig-24-rollen/p/6346775</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-weiss-4-lagig-32-rollen/p/6095356</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>24Rol</t>
+          <t>32Rol</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>23.25</t>
+          <t>31.00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1053,41 +1053,41 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Tempo Premium 4-lagig 24 Rollen 2 für 1 Aktion 23.25 Schweizer Franken</t>
+          <t>Tempo Toilettenpapier weiss 4-lagig 32 Rollen 31.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6095356</t>
+          <t>6346775</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier weiss 4-lagig 32 Rollen</t>
+          <t>Tempo Premium 4-lagig 24 Rollen</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-weiss-4-lagig-32-rollen/p/6095356</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-premium-4-lagig-24-rollen/p/6346775</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>32Rol</t>
+          <t>24Rol</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>31.00</t>
+          <t>23.25</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier weiss 4-lagig 32 Rollen 31.00 Schweizer Franken</t>
+          <t>Tempo Premium 4-lagig 24 Rollen 2 für 1 Aktion 23.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -1740,7 +1740,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -2089,163 +2089,163 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3877759</t>
+          <t>6002773</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Plenty Original 4x45 Blatt</t>
+          <t>Hakle Toilettenpapier Klassisch blau 3-lagig 30 Rollen</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/plenty-original-4x45-blatt/p/3877759</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/hakle-toilettenpapier-klassisch-blau-3-lagig-30-rollen/p/6002773</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>180BLT</t>
+          <t>30Rol</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F25" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Plenty</t>
+          <t>Hakle</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>6.70</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+          <t>17.50</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0.58/1Rol</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Rolle</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>1Rol</t>
+        </is>
+      </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Plenty Original 4x45 Blatt 6.70 Schweizer Franken</t>
+          <t>Hakle Toilettenpapier Klassisch blau 3-lagig 30 Rollen 36% Aktion 17.50 Schweizer Franken statt 27.35 Schweizer Franken</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6002773</t>
+          <t>3877762</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Hakle Toilettenpapier Klassisch blau 3-lagig 30 Rollen</t>
+          <t>Plenty Haushaltpapier White 16 Rollen</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/hakle-toilettenpapier-klassisch-blau-3-lagig-30-rollen/p/6002773</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/plenty-haushaltpapier-white-16-rollen/p/3877762</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>30Rol</t>
+          <t>720BLT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hakle</t>
+          <t>Plenty</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>17.50</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>0.58/1Rol</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Rolle</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>1Rol</t>
-        </is>
-      </c>
+          <t>26.80</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Hakle Toilettenpapier Klassisch blau 3-lagig 30 Rollen 36% Aktion 17.50 Schweizer Franken statt 27.35 Schweizer Franken</t>
+          <t>Plenty Haushaltpapier White 16 Rollen 1+1 Aktion 26.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3877762</t>
+          <t>3877759</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Plenty Haushaltpapier White 16 Rollen</t>
+          <t>Plenty Original 4x45 Blatt</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/plenty-haushaltpapier-white-16-rollen/p/3877762</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/plenty-original-4x45-blatt/p/3877759</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>720BLT</t>
+          <t>180BLT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="F27" t="n">
         <v>4.5</v>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>26.80</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -2271,12 +2271,12 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Plenty Haushaltpapier White 16 Rollen 1+1 Aktion 26.80 Schweizer Franken</t>
+          <t>Plenty Original 4x45 Blatt 6.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -2495,7 +2495,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -2568,24 +2568,24 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4489513</t>
+          <t>6384992</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier white 3-lagig 32 Rollen</t>
+          <t>Tempo Toilettenpapier Premium Kamille &amp;amp; Aloe Vera 4-lagig 32 Rollen</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-white-3-lagig-32-rollen/p/4489513</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-premium-kamille-aloe-vera-4-lagig-32-rollen/p/6384992</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2594,7 +2594,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F32" t="n">
         <v>4</v>
@@ -2636,29 +2636,29 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier white 3-lagig 32 Rollen 31.00 Schweizer Franken</t>
+          <t>Tempo Toilettenpapier Premium Kamille &amp;amp; Aloe Vera 4-lagig 32 Rollen 31.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6384992</t>
+          <t>4489513</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier Premium Kamille &amp;amp; Aloe Vera 4-lagig 32 Rollen</t>
+          <t>Tempo Toilettenpapier white 3-lagig 32 Rollen</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-premium-kamille-aloe-vera-4-lagig-32-rollen/p/6384992</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-white-3-lagig-32-rollen/p/4489513</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2667,7 +2667,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F33" t="n">
         <v>4</v>
@@ -2709,12 +2709,12 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier Premium Kamille &amp;amp; Aloe Vera 4-lagig 32 Rollen 31.00 Schweizer Franken</t>
+          <t>Tempo Toilettenpapier white 3-lagig 32 Rollen 31.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -2787,50 +2787,50 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>4259692</t>
+          <t>6691405</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Oecoplan Taschentücher 15x10 Stück</t>
+          <t>Super Soft Sensitive feucht FSC</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/oecoplan-taschentuecher-15x10-stueck/p/4259692</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-sensitive-feucht-fsc/p/6691405</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>15ST</t>
+          <t>60ST</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F35" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Super Soft</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>0.15/1ST</t>
+          <t>0.05/1ST</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2850,60 +2850,60 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Oecoplan Taschentücher 15x10 Stück 2.30 Schweizer Franken</t>
+          <t>Super Soft Sensitive feucht FSC 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>6691405</t>
+          <t>4259692</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Super Soft Sensitive feucht FSC</t>
+          <t>Oecoplan Taschentücher 15x10 Stück</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-sensitive-feucht-fsc/p/6691405</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/oecoplan-taschentuecher-15x10-stueck/p/4259692</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>60ST</t>
+          <t>15ST</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Super Soft</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>0.05/1ST</t>
+          <t>0.15/1ST</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2913,7 +2913,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2923,17 +2923,17 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Super Soft Sensitive feucht FSC 3.20 Schweizer Franken</t>
+          <t>Oecoplan Taschentücher 15x10 Stück 2.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -2990,7 +2990,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -3262,50 +3262,50 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5721736</t>
+          <t>3181740</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Super Silk Taschentücher Würfelbox</t>
+          <t>Tempo Taschentücher 30x10 Stück</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/super-silk-taschentuecher-wuerfelbox/p/5721736</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/tempo-taschentuecher-30x10-stueck/p/3181740</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>60ST</t>
+          <t>30ST</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="F42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Super Silk</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>7.90</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>0.04/1ST</t>
+          <t>0.26/1ST</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3330,55 +3330,55 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Super Silk Taschentücher Würfelbox 2.10 Schweizer Franken</t>
+          <t>Tempo Taschentücher 30x10 Stück 7.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3181740</t>
+          <t>5721736</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher 30x10 Stück</t>
+          <t>Super Silk Taschentücher Würfelbox</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/tempo-taschentuecher-30x10-stueck/p/3181740</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/super-silk-taschentuecher-wuerfelbox/p/5721736</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>30ST</t>
+          <t>60ST</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="F43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Super Silk</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>7.90</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>0.26/1ST</t>
+          <t>0.04/1ST</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3388,7 +3388,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3403,12 +3403,12 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher 30x10 Stück 7.90 Schweizer Franken</t>
+          <t>Super Silk Taschentücher Würfelbox 2.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -3554,7 +3554,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -3698,175 +3698,175 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6568330</t>
+          <t>4125542</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Super Soft Premium 99% Water</t>
+          <t>Plenty Haushaltpapier White Short &amp;amp; Smart 4 Rollen</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-premium-99-water/p/6568330</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/plenty-haushaltpapier-white-short-smart-4-rollen/p/4125542</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>50ST</t>
+          <t>296BLT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F48" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Super Soft</t>
+          <t>Plenty</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>0.06/1ST</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Super Soft Premium 99% Water 2.95 Schweizer Franken</t>
+          <t>Plenty Haushaltpapier White Short &amp;amp; Smart 4 Rollen 6.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>4125542</t>
+          <t>6568330</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Plenty Haushaltpapier White Short &amp;amp; Smart 4 Rollen</t>
+          <t>Super Soft Premium 99% Water</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/plenty-haushaltpapier-white-short-smart-4-rollen/p/4125542</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-premium-99-water/p/6568330</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>296BLT</t>
+          <t>50ST</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F49" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Plenty</t>
+          <t>Super Soft</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>6.70</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>0.06/1ST</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Plenty Haushaltpapier White Short &amp;amp; Smart 4 Rollen 6.70 Schweizer Franken</t>
+          <t>Super Soft Premium 99% Water 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6286107</t>
+          <t>6498160</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Oecoplan Haushaltpapier decor &amp;amp; short, 2 Rollen 3-lagig</t>
+          <t>subito Haushaltspapier weiss 8 Rollen</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/oecoplan-haushaltpapier-decor-short-2-rollen-3-lagig/p/6286107</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-weiss-8-rollen/p/6498160</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>200BLT</t>
+          <t>400BLT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F50" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>subito</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>10.95</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -3880,50 +3880,50 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Oecoplan Haushaltpapier decor &amp;amp; short, 2 Rollen 3-lagig 2.50 Schweizer Franken</t>
+          <t>subito Haushaltspapier weiss 8 Rollen 10.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6498160</t>
+          <t>6286107</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>subito Haushaltspapier weiss 8 Rollen</t>
+          <t>Oecoplan Haushaltpapier decor &amp;amp; short, 2 Rollen 3-lagig</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-weiss-8-rollen/p/6498160</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/oecoplan-haushaltpapier-decor-short-2-rollen-3-lagig/p/6286107</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>400BLT</t>
+          <t>200BLT</t>
         </is>
       </c>
       <c r="E51" t="n">
+        <v>14</v>
+      </c>
+      <c r="F51" t="n">
         <v>3</v>
       </c>
-      <c r="F51" t="n">
-        <v>4.5</v>
-      </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>subito</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>10.95</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -3937,12 +3937,12 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>subito Haushaltspapier weiss 8 Rollen 10.95 Schweizer Franken</t>
+          <t>Oecoplan Haushaltpapier decor &amp;amp; short, 2 Rollen 3-lagig 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -4088,7 +4088,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -4234,7 +4234,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -4307,7 +4307,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -4453,7 +4453,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -4526,7 +4526,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -4599,7 +4599,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -4672,7 +4672,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -4802,7 +4802,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -4946,7 +4946,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -5019,7 +5019,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -5092,45 +5092,43 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6834305</t>
+          <t>6498679</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen</t>
+          <t>Subito Haushaltspapier decor 12 Rollen</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/zewa-wisch-weg-haushaltspapier-weiss-4-rollen/p/6834305</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-decor-12-rollen/p/6498679</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>192BLT</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>1</v>
-      </c>
+          <t>600BLT</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
       <c r="F68" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Zewa</t>
+          <t>subito</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>10.95</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -5144,140 +5142,142 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen 5.50 Schweizer Franken</t>
+          <t>Subito Haushaltspapier decor 12 Rollen 33% Aktion 10.95 Schweizer Franken statt 16.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>3180824</t>
+          <t>6834305</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück</t>
+          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/tempo-taschentuecher-plus-aloe-kamille-12x9-stueck/p/3180824</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/zewa-wisch-weg-haushaltspapier-weiss-4-rollen/p/6834305</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>12ST</t>
+          <t>192BLT</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Zewa</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>0.33/1ST</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück 3.95 Schweizer Franken</t>
+          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6498679</t>
+          <t>3180824</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Subito Haushaltspapier decor 12 Rollen</t>
+          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-decor-12-rollen/p/6498679</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/tempo-taschentuecher-plus-aloe-kamille-12x9-stueck/p/3180824</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>600BLT</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr"/>
+          <t>12ST</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>7</v>
+      </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>subito</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>10.95</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>0.33/1ST</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Subito Haushaltspapier decor 12 Rollen 33% Aktion 10.95 Schweizer Franken statt 16.50 Schweizer Franken</t>
+          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -5332,7 +5332,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -5389,7 +5389,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -5462,7 +5462,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -5519,7 +5519,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -5592,7 +5592,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -5665,7 +5665,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -5738,7 +5738,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -5811,7 +5811,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -5884,7 +5884,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -5957,7 +5957,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -6030,7 +6030,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -6103,7 +6103,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -6176,7 +6176,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -6231,151 +6231,151 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>6636712</t>
+          <t>6996029</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Pampers Coconut Pure 42 Feuchttücher</t>
+          <t>Tela Lux 4-lagig 6 Rollen</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/pampers-coconut-pure-42-feuchttuecher/p/6636712</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-lux-4-lagig-6-rollen/p/6996029</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>42ST</t>
-        </is>
-      </c>
-      <c r="E85" t="n">
-        <v>2</v>
-      </c>
+          <t>6Rol</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
       <c r="F85" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Pampers</t>
+          <t>Tela</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>0.12/1ST</t>
+          <t>0.93/1Rol</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Pampers Coconut Pure 42 Feuchttücher 4.95 Schweizer Franken</t>
+          <t>Tela Lux 4-lagig 6 Rollen 5.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>6996029</t>
+          <t>6636712</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Tela Lux 4-lagig 6 Rollen</t>
+          <t>Pampers Coconut Pure 42 Feuchttücher</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-lux-4-lagig-6-rollen/p/6996029</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/pampers-coconut-pure-42-feuchttuecher/p/6636712</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>6Rol</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr"/>
+          <t>42ST</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>2</v>
+      </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Tela</t>
+          <t>Pampers</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>0.93/1Rol</t>
+          <t>0.12/1ST</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>Tela Lux 4-lagig 6 Rollen 5.60 Schweizer Franken</t>
+          <t>Pampers Coconut Pure 42 Feuchttücher 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -6448,7 +6448,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
@@ -6519,7 +6519,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-07-29 07:00:38</t>
+          <t>2022-07-29 20:57:51</t>
         </is>
       </c>
     </row>
